--- a/Project_Abyss/Data/Table/MonsterTable.xlsx
+++ b/Project_Abyss/Data/Table/MonsterTable.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Abyss\Project Abyss\Assets\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\Project_Abyss\Data\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="9210"/>
   </bookViews>
   <sheets>
-    <sheet name="GameStageTable" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,7 +42,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ant</t>
+    <t>attack_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move_speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,21 +380,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -400,8 +402,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -411,21 +419,15 @@
       <c r="C2" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>30</v>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>